--- a/assessment/excel new assessment/Book1.xlsx
+++ b/assessment/excel new assessment/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony Vaio\Documents\github\JeetPython_tops\assessment\excel new assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E6EF16-A9B5-42F4-A9AF-965F56E43E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D7E3A1-B22B-4A03-8799-76DFAE072946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{1B88C993-C64C-4D08-A0B8-5099BCD146E3}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -279,7 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,8 +311,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Account code">
@@ -336,7 +335,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -886,7 +885,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2223586-39D4-4CE6-88F7-726E0F289B78}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2223586-39D4-4CE6-88F7-726E0F289B78}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -1426,16 +1425,16 @@
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>987</v>
       </c>
     </row>
@@ -1443,16 +1442,16 @@
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>987</v>
       </c>
     </row>
@@ -1460,16 +1459,16 @@
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>1974</v>
       </c>
     </row>
